--- a/excel/de.xlsx
+++ b/excel/de.xlsx
@@ -31,7 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1609">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
   <si>
     <t>tk.uiaas.orderentry.orderstatus.detail.cancelReason.Z1</t>
   </si>
@@ -5238,7 +5244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1093"/>
+  <dimension ref="A1:B1094"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5352,15 +5358,15 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -5832,23 +5838,23 @@
         <v>145</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -6096,15 +6102,15 @@
         <v>209</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109">
@@ -6240,15 +6246,15 @@
         <v>244</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127">
@@ -6264,31 +6270,31 @@
         <v>249</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132">
@@ -6304,15 +6310,15 @@
         <v>256</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135">
@@ -6328,23 +6334,23 @@
         <v>261</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139">
@@ -6424,15 +6430,15 @@
         <v>283</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150">
@@ -6488,15 +6494,15 @@
         <v>298</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158">
@@ -6504,15 +6510,15 @@
         <v>301</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
@@ -6544,23 +6550,23 @@
         <v>310</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166">
@@ -6584,15 +6590,15 @@
         <v>318</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170">
@@ -6624,23 +6630,23 @@
         <v>327</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176">
@@ -6752,15 +6758,15 @@
         <v>357</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191">
@@ -6776,15 +6782,15 @@
         <v>362</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194">
@@ -6792,15 +6798,15 @@
         <v>365</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196">
@@ -6824,15 +6830,15 @@
         <v>372</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>374</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200">
@@ -6840,15 +6846,15 @@
         <v>375</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>64</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>377</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202">
@@ -6856,15 +6862,15 @@
         <v>378</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>160</v>
+        <v>379</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
@@ -6936,15 +6942,15 @@
         <v>397</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>399</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214">
@@ -6992,15 +6998,15 @@
         <v>410</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221">
@@ -7008,15 +7014,15 @@
         <v>413</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223">
@@ -7024,15 +7030,15 @@
         <v>416</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225">
@@ -7048,15 +7054,15 @@
         <v>421</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>315</v>
+        <v>422</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228">
@@ -7064,15 +7070,15 @@
         <v>424</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230">
@@ -7176,31 +7182,31 @@
         <v>451</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>52</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>455</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246">
@@ -7240,23 +7246,23 @@
         <v>464</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>110</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
     </row>
     <row r="253">
@@ -7264,15 +7270,15 @@
         <v>468</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>470</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255">
@@ -7304,15 +7310,15 @@
         <v>477</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>268</v>
+        <v>478</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>479</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260">
@@ -7336,15 +7342,15 @@
         <v>484</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>344</v>
+        <v>485</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>486</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264">
@@ -7400,15 +7406,15 @@
         <v>499</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>384</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272">
@@ -7440,15 +7446,15 @@
         <v>508</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="277">
@@ -7456,15 +7462,15 @@
         <v>511</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>246</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>513</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279">
@@ -7512,15 +7518,15 @@
         <v>524</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>52</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>526</v>
+        <v>54</v>
       </c>
     </row>
     <row r="286">
@@ -7552,15 +7558,15 @@
         <v>533</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>535</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291">
@@ -7568,15 +7574,15 @@
         <v>536</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>64</v>
+        <v>537</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>538</v>
+        <v>66</v>
       </c>
     </row>
     <row r="293">
@@ -7592,23 +7598,23 @@
         <v>541</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
     </row>
     <row r="297">
@@ -7616,15 +7622,15 @@
         <v>545</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>184</v>
+        <v>546</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>547</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299">
@@ -7632,15 +7638,15 @@
         <v>548</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>241</v>
+        <v>549</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>550</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301">
@@ -7648,15 +7654,15 @@
         <v>551</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>399</v>
+        <v>552</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>553</v>
+        <v>401</v>
       </c>
     </row>
     <row r="303">
@@ -7672,15 +7678,15 @@
         <v>556</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>213</v>
+        <v>557</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>558</v>
+        <v>215</v>
       </c>
     </row>
     <row r="306">
@@ -7696,15 +7702,15 @@
         <v>561</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>563</v>
+        <v>390</v>
       </c>
     </row>
     <row r="309">
@@ -7720,15 +7726,15 @@
         <v>566</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>138</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>568</v>
+        <v>140</v>
       </c>
     </row>
     <row r="312">
@@ -7760,15 +7766,15 @@
         <v>575</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>342</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>577</v>
+        <v>344</v>
       </c>
     </row>
     <row r="317">
@@ -7776,15 +7782,15 @@
         <v>578</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>268</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>580</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319">
@@ -7800,15 +7806,15 @@
         <v>583</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>423</v>
+        <v>584</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>585</v>
+        <v>425</v>
       </c>
     </row>
     <row r="322">
@@ -7816,23 +7822,23 @@
         <v>586</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>470</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
     </row>
     <row r="325">
@@ -7840,15 +7846,15 @@
         <v>590</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>206</v>
+        <v>591</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>592</v>
+        <v>208</v>
       </c>
     </row>
     <row r="327">
@@ -7856,15 +7862,15 @@
         <v>593</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>160</v>
+        <v>594</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>595</v>
+        <v>162</v>
       </c>
     </row>
     <row r="329">
@@ -7904,15 +7910,15 @@
         <v>604</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>223</v>
+        <v>605</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>606</v>
+        <v>225</v>
       </c>
     </row>
     <row r="335">
@@ -7968,15 +7974,15 @@
         <v>619</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>305</v>
+        <v>620</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>621</v>
+        <v>307</v>
       </c>
     </row>
     <row r="343">
@@ -7984,23 +7990,23 @@
         <v>622</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>369</v>
+        <v>623</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>540</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>625</v>
+        <v>542</v>
       </c>
     </row>
     <row r="346">
@@ -8008,15 +8014,15 @@
         <v>626</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>356</v>
+        <v>627</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>628</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348">
@@ -8024,23 +8030,23 @@
         <v>629</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>340</v>
+        <v>630</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>632</v>
+        <v>436</v>
       </c>
     </row>
     <row r="351">
@@ -8048,23 +8054,23 @@
         <v>633</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>470</v>
+        <v>634</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>243</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>636</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354">
@@ -8096,31 +8102,31 @@
         <v>643</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>440</v>
+        <v>642</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>647</v>
+        <v>388</v>
       </c>
     </row>
     <row r="361">
@@ -8128,15 +8134,15 @@
         <v>648</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>326</v>
+        <v>649</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>650</v>
+        <v>328</v>
       </c>
     </row>
     <row r="363">
@@ -8144,23 +8150,23 @@
         <v>651</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>403</v>
+        <v>652</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>166</v>
+        <v>405</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>654</v>
+        <v>168</v>
       </c>
     </row>
     <row r="366">
@@ -8168,15 +8174,15 @@
         <v>655</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>492</v>
+        <v>656</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>657</v>
+        <v>494</v>
       </c>
     </row>
     <row r="368">
@@ -8184,15 +8190,15 @@
         <v>658</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>200</v>
+        <v>659</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
     </row>
     <row r="370">
@@ -8216,15 +8222,15 @@
         <v>665</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>461</v>
+        <v>666</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>667</v>
+        <v>463</v>
       </c>
     </row>
     <row r="374">
@@ -8232,15 +8238,15 @@
         <v>668</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>430</v>
+        <v>669</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>670</v>
+        <v>432</v>
       </c>
     </row>
     <row r="376">
@@ -8248,23 +8254,23 @@
         <v>671</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>428</v>
+        <v>672</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>647</v>
+        <v>430</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
     </row>
     <row r="379">
@@ -8272,31 +8278,31 @@
         <v>675</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>219</v>
+        <v>676</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>679</v>
+        <v>459</v>
       </c>
     </row>
     <row r="383">
@@ -8320,15 +8326,15 @@
         <v>684</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>686</v>
+        <v>591</v>
       </c>
     </row>
     <row r="387">
@@ -8336,15 +8342,15 @@
         <v>687</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>60</v>
+        <v>688</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>689</v>
+        <v>62</v>
       </c>
     </row>
     <row r="389">
@@ -8360,71 +8366,71 @@
         <v>692</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>440</v>
+        <v>608</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>198</v>
+        <v>461</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>386</v>
+        <v>200</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>553</v>
+        <v>398</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>382</v>
+        <v>555</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>701</v>
+        <v>384</v>
       </c>
     </row>
     <row r="399">
@@ -8440,47 +8446,47 @@
         <v>704</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>260</v>
+        <v>705</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>521</v>
+        <v>160</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>710</v>
+        <v>523</v>
       </c>
     </row>
     <row r="406">
@@ -8496,39 +8502,39 @@
         <v>713</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>361</v>
+        <v>714</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>494</v>
+        <v>270</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>718</v>
+        <v>512</v>
       </c>
     </row>
     <row r="412">
@@ -8552,15 +8558,15 @@
         <v>723</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>371</v>
+        <v>724</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>725</v>
+        <v>373</v>
       </c>
     </row>
     <row r="416">
@@ -8568,15 +8574,15 @@
         <v>726</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>332</v>
+        <v>727</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>728</v>
+        <v>334</v>
       </c>
     </row>
     <row r="418">
@@ -8584,28 +8590,28 @@
         <v>729</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>618</v>
+        <v>730</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>305</v>
+        <v>620</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>614</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="422">
       <c r="A422" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>616</v>
@@ -8621,66 +8627,66 @@
     </row>
     <row r="423">
       <c r="A423" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>239</v>
+        <v>623</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>638</v>
+        <v>272</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>243</v>
+        <v>683</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>742</v>
+        <v>322</v>
       </c>
     </row>
     <row r="431">
@@ -8696,15 +8702,15 @@
         <v>745</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>324</v>
+        <v>746</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>747</v>
+        <v>326</v>
       </c>
     </row>
     <row r="434">
@@ -8712,23 +8718,23 @@
         <v>748</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>80</v>
+        <v>749</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>751</v>
+        <v>94</v>
       </c>
     </row>
     <row r="437">
@@ -8752,39 +8758,39 @@
         <v>756</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>348</v>
+        <v>757</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>142</v>
+        <v>350</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>761</v>
+        <v>322</v>
       </c>
     </row>
     <row r="444">
@@ -8792,31 +8798,31 @@
         <v>762</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>532</v>
+        <v>763</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>664</v>
+        <v>534</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>766</v>
+        <v>603</v>
       </c>
     </row>
     <row r="448">
@@ -8832,23 +8838,23 @@
         <v>769</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>332</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>772</v>
+        <v>334</v>
       </c>
     </row>
     <row r="452">
@@ -8856,15 +8862,15 @@
         <v>773</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>494</v>
+        <v>774</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>775</v>
+        <v>496</v>
       </c>
     </row>
     <row r="454">
@@ -8872,15 +8878,15 @@
         <v>776</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
     </row>
     <row r="456">
@@ -8888,15 +8894,15 @@
         <v>779</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>565</v>
+        <v>780</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>781</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458">
@@ -8904,15 +8910,15 @@
         <v>782</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>162</v>
+        <v>783</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>784</v>
+        <v>164</v>
       </c>
     </row>
     <row r="460">
@@ -8928,23 +8934,23 @@
         <v>787</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>394</v>
+        <v>788</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>790</v>
+        <v>36</v>
       </c>
     </row>
     <row r="464">
@@ -8952,31 +8958,31 @@
         <v>791</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>243</v>
+        <v>746</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>795</v>
+        <v>245</v>
       </c>
     </row>
     <row r="468">
@@ -8992,39 +8998,39 @@
         <v>798</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>722</v>
+        <v>799</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>457</v>
+        <v>724</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>142</v>
+        <v>459</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>803</v>
+        <v>142</v>
       </c>
     </row>
     <row r="474">
@@ -9032,15 +9038,15 @@
         <v>804</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>751</v>
+        <v>805</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>806</v>
+        <v>753</v>
       </c>
     </row>
     <row r="476">
@@ -9048,23 +9054,23 @@
         <v>807</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>755</v>
+        <v>808</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>80</v>
+        <v>757</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>810</v>
+        <v>82</v>
       </c>
     </row>
     <row r="479">
@@ -9072,15 +9078,15 @@
         <v>811</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>92</v>
+        <v>812</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>813</v>
+        <v>94</v>
       </c>
     </row>
     <row r="481">
@@ -9088,23 +9094,23 @@
         <v>814</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>647</v>
+        <v>815</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>305</v>
+        <v>649</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>817</v>
+        <v>307</v>
       </c>
     </row>
     <row r="484">
@@ -9256,15 +9262,15 @@
         <v>854</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>164</v>
+        <v>855</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>856</v>
+        <v>166</v>
       </c>
     </row>
     <row r="504">
@@ -9272,23 +9278,23 @@
         <v>857</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>444</v>
+        <v>858</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>860</v>
+        <v>373</v>
       </c>
     </row>
     <row r="507">
@@ -9296,31 +9302,31 @@
         <v>861</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>585</v>
+        <v>862</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>260</v>
+        <v>474</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>865</v>
+        <v>262</v>
       </c>
     </row>
     <row r="511">
@@ -9328,95 +9334,95 @@
         <v>866</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>747</v>
+        <v>867</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>346</v>
+        <v>749</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>142</v>
+        <v>363</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>751</v>
+        <v>142</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>92</v>
+        <v>805</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>878</v>
+        <v>94</v>
       </c>
     </row>
     <row r="523">
@@ -9432,55 +9438,55 @@
         <v>881</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>544</v>
+        <v>882</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>679</v>
+        <v>403</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>526</v>
+        <v>681</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>888</v>
+        <v>348</v>
       </c>
     </row>
     <row r="531">
@@ -9488,47 +9494,47 @@
         <v>889</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>599</v>
+        <v>890</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>494</v>
+        <v>601</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>599</v>
+        <v>496</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>426</v>
+        <v>601</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>184</v>
+        <v>428</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>895</v>
+        <v>186</v>
       </c>
     </row>
     <row r="537">
@@ -9552,39 +9558,39 @@
         <v>900</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>703</v>
+        <v>901</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>407</v>
+        <v>705</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>761</v>
+        <v>409</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>320</v>
+        <v>763</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>905</v>
+        <v>322</v>
       </c>
     </row>
     <row r="544">
@@ -9592,31 +9598,31 @@
         <v>906</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>718</v>
+        <v>907</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>374</v>
+        <v>724</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>910</v>
+        <v>376</v>
       </c>
     </row>
     <row r="548">
@@ -9624,151 +9630,151 @@
         <v>911</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>440</v>
+        <v>912</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>124</v>
+        <v>363</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>683</v>
+        <v>128</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>359</v>
+        <v>685</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>467</v>
+        <v>361</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>778</v>
+        <v>469</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>100</v>
+        <v>780</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>346</v>
+        <v>114</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>930</v>
+        <v>100</v>
       </c>
     </row>
     <row r="567">
@@ -9776,15 +9782,15 @@
         <v>931</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>778</v>
+        <v>932</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>933</v>
+        <v>780</v>
       </c>
     </row>
     <row r="569">
@@ -9792,55 +9798,55 @@
         <v>934</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>371</v>
+        <v>935</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>260</v>
+        <v>430</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>405</v>
+        <v>262</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>219</v>
+        <v>407</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>941</v>
+        <v>239</v>
       </c>
     </row>
     <row r="576">
@@ -9864,71 +9870,71 @@
         <v>946</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>797</v>
+        <v>947</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>496</v>
+        <v>797</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>84</v>
+        <v>521</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>955</v>
+        <v>80</v>
       </c>
     </row>
     <row r="587">
@@ -9952,71 +9958,71 @@
         <v>960</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>523</v>
+        <v>961</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>76</v>
+        <v>525</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>426</v>
+        <v>78</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>969</v>
+        <v>88</v>
       </c>
     </row>
     <row r="598">
@@ -10024,15 +10030,15 @@
         <v>970</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>46</v>
+        <v>971</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>972</v>
+        <v>48</v>
       </c>
     </row>
     <row r="600">
@@ -10040,47 +10046,47 @@
         <v>973</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>48</v>
+        <v>974</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>979</v>
+        <v>42</v>
       </c>
     </row>
     <row r="606">
@@ -10088,31 +10094,31 @@
         <v>980</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>11</v>
+        <v>981</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>530</v>
+        <v>13</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>108</v>
+        <v>532</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>984</v>
+        <v>110</v>
       </c>
     </row>
     <row r="610">
@@ -10120,15 +10126,15 @@
         <v>985</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>831</v>
+        <v>986</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>987</v>
+        <v>833</v>
       </c>
     </row>
     <row r="612">
@@ -10160,20 +10166,20 @@
         <v>994</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>829</v>
+        <v>995</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>819</v>
@@ -10181,23 +10187,23 @@
     </row>
     <row r="618">
       <c r="A618" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>305</v>
+        <v>821</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>839</v>
+        <v>307</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>841</v>
@@ -10205,15 +10211,15 @@
     </row>
     <row r="621">
       <c r="A621" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>837</v>
@@ -10221,39 +10227,39 @@
     </row>
     <row r="623">
       <c r="A623" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>827</v>
@@ -10261,15 +10267,15 @@
     </row>
     <row r="628">
       <c r="A628" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>823</v>
@@ -10277,18 +10283,18 @@
     </row>
     <row r="630">
       <c r="A630" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>555</v>
+        <v>825</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1011</v>
+        <v>557</v>
       </c>
     </row>
     <row r="632">
@@ -10296,15 +10302,15 @@
         <v>1012</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>348</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1014</v>
+        <v>350</v>
       </c>
     </row>
     <row r="634">
@@ -10344,15 +10350,15 @@
         <v>1023</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>5</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1025</v>
+        <v>7</v>
       </c>
     </row>
     <row r="640">
@@ -10360,63 +10366,63 @@
         <v>1026</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>9</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1034</v>
+        <v>21</v>
       </c>
     </row>
     <row r="648">
@@ -10424,39 +10430,39 @@
         <v>1035</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>32</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1040</v>
+        <v>30</v>
       </c>
     </row>
     <row r="653">
@@ -10472,23 +10478,23 @@
         <v>1043</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>30</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1040</v>
+        <v>32</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="657">
@@ -10544,15 +10550,15 @@
         <v>1059</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>23</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1061</v>
+        <v>25</v>
       </c>
     </row>
     <row r="665">
@@ -10584,39 +10590,39 @@
         <v>1068</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>492</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>354</v>
+        <v>494</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1073</v>
+        <v>160</v>
       </c>
     </row>
     <row r="673">
@@ -10624,20 +10630,20 @@
         <v>1074</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>494</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>488</v>
@@ -10645,26 +10651,26 @@
     </row>
     <row r="676">
       <c r="A676" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>367</v>
+        <v>490</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1080</v>
+        <v>503</v>
       </c>
     </row>
     <row r="679">
@@ -10672,12 +10678,12 @@
         <v>1081</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>681</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>683</v>
@@ -10685,50 +10691,50 @@
     </row>
     <row r="681">
       <c r="A681" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>969</v>
+        <v>685</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>608</v>
+        <v>971</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>415</v>
+        <v>610</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1089</v>
+        <v>481</v>
       </c>
     </row>
     <row r="687">
@@ -10744,23 +10750,23 @@
         <v>1092</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>878</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1095</v>
+        <v>912</v>
       </c>
     </row>
     <row r="691">
@@ -10768,108 +10774,108 @@
         <v>1096</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>423</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>202</v>
+        <v>409</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>444</v>
+        <v>322</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>632</v>
+        <v>407</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>784</v>
+        <v>597</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>430</v>
+        <v>786</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>1046</v>
+        <v>396</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>1048</v>
@@ -10877,10 +10883,10 @@
     </row>
     <row r="705">
       <c r="A705" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1111</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="706">
@@ -10960,15 +10966,15 @@
         <v>1130</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1056</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1132</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="717">
@@ -10976,12 +10982,12 @@
         <v>1133</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1052</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>1054</v>
@@ -10989,18 +10995,18 @@
     </row>
     <row r="719">
       <c r="A719" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1137</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="721">
@@ -11080,23 +11086,23 @@
         <v>1156</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>470</v>
+        <v>162</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1159</v>
+        <v>472</v>
       </c>
     </row>
     <row r="733">
@@ -11104,12 +11110,12 @@
         <v>1160</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1016</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>1018</v>
@@ -11117,10 +11123,10 @@
     </row>
     <row r="735">
       <c r="A735" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1163</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="736">
@@ -11160,39 +11166,39 @@
         <v>1172</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>979</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>248</v>
+        <v>981</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="745">
@@ -11216,15 +11222,15 @@
         <v>1182</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>60</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="749">
@@ -11240,47 +11246,47 @@
         <v>1187</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>369</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>530</v>
+        <v>371</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>434</v>
+        <v>532</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>555</v>
+        <v>334</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1193</v>
+        <v>557</v>
       </c>
     </row>
     <row r="756">
@@ -11288,15 +11294,15 @@
         <v>1194</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>479</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1196</v>
+        <v>481</v>
       </c>
     </row>
     <row r="758">
@@ -11304,175 +11310,175 @@
         <v>1197</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>110</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1091</v>
+        <v>112</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>390</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>428</v>
+        <v>350</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>168</v>
+        <v>488</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>488</v>
+        <v>170</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>930</v>
+        <v>344</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>338</v>
+        <v>932</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="3" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>550</v>
+        <v>326</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>428</v>
+        <v>552</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>797</v>
+        <v>430</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1219</v>
+        <v>799</v>
       </c>
     </row>
     <row r="780">
@@ -11480,31 +11486,31 @@
         <v>1220</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>396</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="3" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>270</v>
+        <v>436</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="3" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="784">
@@ -11512,15 +11518,15 @@
         <v>1225</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>679</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1227</v>
+        <v>681</v>
       </c>
     </row>
     <row r="786">
@@ -11528,39 +11534,39 @@
         <v>1228</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>423</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>910</v>
+        <v>425</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>280</v>
+        <v>912</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="3" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>521</v>
+        <v>282</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1233</v>
+        <v>523</v>
       </c>
     </row>
     <row r="791">
@@ -11568,36 +11574,36 @@
         <v>1234</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>819</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="3" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>305</v>
+        <v>821</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>827</v>
+        <v>307</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="3" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>823</v>
@@ -11605,26 +11611,26 @@
     </row>
     <row r="796">
       <c r="A796" s="3" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>1242</v>
+        <v>827</v>
       </c>
     </row>
     <row r="799">
@@ -11632,28 +11638,28 @@
         <v>1243</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>829</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="3" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>837</v>
@@ -11661,31 +11667,31 @@
     </row>
     <row r="803">
       <c r="A803" s="3" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="3" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>845</v>
@@ -11693,90 +11699,90 @@
     </row>
     <row r="807">
       <c r="A807" s="3" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="3" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>258</v>
+        <v>841</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="3" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>606</v>
+        <v>260</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="3" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>747</v>
+        <v>549</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="3" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>865</v>
+        <v>693</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>778</v>
+        <v>867</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>243</v>
+        <v>780</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="3" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1262</v>
+        <v>168</v>
       </c>
     </row>
     <row r="818">
@@ -11800,39 +11806,39 @@
         <v>1267</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>608</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>138</v>
+        <v>610</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>305</v>
+        <v>140</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="3" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="3" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>1272</v>
+        <v>150</v>
       </c>
     </row>
     <row r="825">
@@ -11840,79 +11846,79 @@
         <v>1273</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>330</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>612</v>
+        <v>332</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>377</v>
+        <v>618</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="3" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>130</v>
+        <v>379</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>621</v>
+        <v>132</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="3" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>305</v>
+        <v>620</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>1283</v>
+        <v>388</v>
       </c>
     </row>
     <row r="835">
@@ -11920,132 +11926,132 @@
         <v>1284</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>538</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="3" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="3" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="3" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="3" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>544</v>
+        <v>363</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>371</v>
+        <v>546</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="3" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>638</v>
+        <v>373</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="3" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>206</v>
+        <v>640</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>720</v>
+        <v>208</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>601</v>
+        <v>722</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="3" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>229</v>
+        <v>603</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="3" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>128</v>
@@ -12053,47 +12059,47 @@
     </row>
     <row r="852">
       <c r="A852" s="3" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>755</v>
+        <v>206</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="3" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>140</v>
+        <v>753</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>142</v>
@@ -12101,135 +12107,135 @@
     </row>
     <row r="858">
       <c r="A858" s="3" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="3" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="3" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="3" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>959</v>
+        <v>94</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>100</v>
+        <v>961</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="3" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>778</v>
+        <v>106</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="3" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>74</v>
+        <v>780</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="3" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B874" s="3" t="s">
         <v>86</v>
@@ -12237,106 +12243,106 @@
     </row>
     <row r="875">
       <c r="A875" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>761</v>
+        <v>68</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>62</v>
+        <v>612</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="3" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>494</v>
+        <v>64</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="3" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>1337</v>
+        <v>428</v>
       </c>
     </row>
     <row r="888">
@@ -12344,28 +12350,28 @@
         <v>1338</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>36</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="3" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>1020</v>
+        <v>192</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B891" s="3" t="s">
         <v>1022</v>
@@ -12373,15 +12379,15 @@
     </row>
     <row r="892">
       <c r="A892" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B893" s="3" t="s">
         <v>1018</v>
@@ -12389,263 +12395,263 @@
     </row>
     <row r="894">
       <c r="A894" s="3" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>9</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>1040</v>
+        <v>7</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>15</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="3" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>1034</v>
+        <v>52</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>32</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>1117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>30</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="3" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>1054</v>
+        <v>30</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>1137</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>23</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>1141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>21</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>979</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>1046</v>
+        <v>981</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B926" s="3" t="s">
         <v>1048</v>
@@ -12653,18 +12659,18 @@
     </row>
     <row r="927">
       <c r="A927" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>158</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>1379</v>
+        <v>160</v>
       </c>
     </row>
     <row r="929">
@@ -12672,55 +12678,55 @@
         <v>1380</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>1129</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>1056</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>1132</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>1052</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>182</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>1387</v>
+        <v>200</v>
       </c>
     </row>
     <row r="936">
@@ -12728,79 +12734,79 @@
         <v>1388</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>180</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>565</v>
+        <v>180</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>647</v>
+        <v>567</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>753</v>
+        <v>649</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>64</v>
+        <v>755</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>457</v>
+        <v>66</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>1398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="946">
@@ -12808,15 +12814,15 @@
         <v>1399</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>647</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>1401</v>
+        <v>649</v>
       </c>
     </row>
     <row r="948">
@@ -12824,71 +12830,71 @@
         <v>1402</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>200</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>761</v>
+        <v>202</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>494</v>
+        <v>763</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>718</v>
+        <v>496</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>241</v>
+        <v>724</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>532</v>
+        <v>243</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>264</v>
+        <v>534</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>1411</v>
+        <v>266</v>
       </c>
     </row>
     <row r="957">
@@ -12896,23 +12902,23 @@
         <v>1412</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>599</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>237</v>
+        <v>601</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>1415</v>
+        <v>239</v>
       </c>
     </row>
     <row r="960">
@@ -12936,20 +12942,20 @@
         <v>1420</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>371</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>104</v>
@@ -12957,34 +12963,34 @@
     </row>
     <row r="965">
       <c r="A965" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>315</v>
+        <v>102</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>1427</v>
+        <v>317</v>
       </c>
     </row>
     <row r="969">
@@ -13016,23 +13022,23 @@
         <v>1434</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>106</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>1437</v>
+        <v>241</v>
       </c>
     </row>
     <row r="975">
@@ -13040,63 +13046,63 @@
         <v>1438</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>144</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>803</v>
+        <v>82</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>701</v>
+        <v>805</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>1446</v>
+        <v>703</v>
       </c>
     </row>
     <row r="983">
@@ -13104,71 +13110,71 @@
         <v>1447</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>403</v>
+        <v>225</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B986" s="3" t="s">
-        <v>664</v>
+        <v>405</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B987" s="3" t="s">
-        <v>227</v>
+        <v>666</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>597</v>
+        <v>221</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="3" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>225</v>
+        <v>599</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>1456</v>
+        <v>227</v>
       </c>
     </row>
     <row r="992">
@@ -13176,36 +13182,36 @@
         <v>1457</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>361</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="3" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="3" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="3" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B996" s="3" t="s">
         <v>154</v>
@@ -13213,18 +13219,18 @@
     </row>
     <row r="997">
       <c r="A997" s="3" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="3" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>1464</v>
+        <v>266</v>
       </c>
     </row>
     <row r="999">
@@ -13248,15 +13254,15 @@
         <v>1469</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>941</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="3" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>1471</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1003">
@@ -13264,31 +13270,31 @@
         <v>1472</v>
       </c>
       <c r="B1003" s="3" t="s">
-        <v>1016</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>1048</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="3" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>784</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>1476</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1007">
@@ -13296,31 +13302,31 @@
         <v>1477</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>248</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="3" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>1034</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>751</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="3" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1010" s="3" t="s">
-        <v>1481</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1011">
@@ -13336,63 +13342,63 @@
         <v>1484</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>448</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="3" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1013" s="3" t="s">
-        <v>532</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1014" s="3" t="s">
-        <v>1415</v>
+        <v>534</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="3" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B1015" s="3" t="s">
-        <v>897</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B1016" s="3" t="s">
-        <v>440</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="3" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B1017" s="3" t="s">
-        <v>1091</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="3" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1018" s="3" t="s">
-        <v>386</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1019" s="3" t="s">
-        <v>1492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1020">
@@ -13408,31 +13414,31 @@
         <v>1495</v>
       </c>
       <c r="B1021" s="3" t="s">
-        <v>515</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="3" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1022" s="3" t="s">
-        <v>1186</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1023" s="3" t="s">
-        <v>80</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="3" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1024" s="3" t="s">
-        <v>1499</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1025">
@@ -13440,175 +13446,175 @@
         <v>1500</v>
       </c>
       <c r="B1025" s="3" t="s">
-        <v>1476</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1026" s="3" t="s">
-        <v>88</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1027" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="3" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1028" s="3" t="s">
-        <v>833</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1029" s="3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="3" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1030" s="3" t="s">
-        <v>1129</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1031" s="3" t="s">
-        <v>1050</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1032" s="3" t="s">
-        <v>614</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1033" s="3" t="s">
-        <v>194</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1034" s="3" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>423</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1036" s="3" t="s">
-        <v>553</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="3" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1037" s="3" t="s">
-        <v>1387</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="3" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1038" s="3" t="s">
-        <v>1186</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="3" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>162</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1040" s="3" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="3" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1041" s="3" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="3" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1042" s="3" t="s">
-        <v>1080</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="3" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1043" s="3" t="s">
-        <v>1468</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="3" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>350</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="3" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1045" s="3" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="3" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>1522</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1047">
@@ -13640,23 +13646,23 @@
         <v>1529</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>1115</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="3" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1052" s="3" t="s">
-        <v>1532</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1053">
@@ -13672,12 +13678,12 @@
         <v>1535</v>
       </c>
       <c r="B1054" s="3" t="s">
-        <v>1117</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="3" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1055" s="3" t="s">
         <v>1119</v>
@@ -13685,18 +13691,18 @@
     </row>
     <row r="1056">
       <c r="A1056" s="3" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1056" s="3" t="s">
-        <v>1149</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="3" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1057" s="3" t="s">
-        <v>1539</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1058">
@@ -13784,15 +13790,15 @@
         <v>1560</v>
       </c>
       <c r="B1068" s="3" t="s">
-        <v>202</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="3" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1069" s="3" t="s">
-        <v>1562</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1070">
@@ -13896,15 +13902,15 @@
         <v>1587</v>
       </c>
       <c r="B1082" s="3" t="s">
-        <v>979</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="3" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1083" s="3" t="s">
-        <v>1589</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1084">
@@ -13920,23 +13926,23 @@
         <v>1592</v>
       </c>
       <c r="B1085" s="3" t="s">
-        <v>1014</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="3" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>1113</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="3" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1087" s="3" t="s">
-        <v>1595</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1088">
@@ -13984,16 +13990,24 @@
         <v>1606</v>
       </c>
       <c r="B1093" s="3" t="s">
-        <v>1061</v>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" tooltip="http://chat.url"/>
-    <hyperlink ref="B462" r:id="rId2" tooltip="http://chat.url"/>
+    <hyperlink ref="B19" r:id="rId1" tooltip="http://chat.url"/>
+    <hyperlink ref="B463" r:id="rId2" tooltip="http://chat.url"/>
   </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1093"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1094"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/de.xlsx
+++ b/excel/de.xlsx
@@ -31,7 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1609">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
   <si>
     <t>tk.uiaas.orderentry.orderstatus.detail.cancelReason.Z1</t>
   </si>
@@ -4668,7 +4674,7 @@
     <t>tk.uiaas.orderstatus.detail.ZS</t>
   </si>
   <si>
-    <t>Kunde hat Frachtzuschlag abgelehnt</t>
+    <t>Kunde hat Frachtzuschlag abgelehnt!!@!@#</t>
   </si>
   <si>
     <t>tk.uiaas.orderstatus.detail.ZT</t>
@@ -5238,7 +5244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1093"/>
+  <dimension ref="A1:B1094"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5352,15 +5358,15 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -5832,23 +5838,23 @@
         <v>145</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -6096,15 +6102,15 @@
         <v>209</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109">
@@ -6240,15 +6246,15 @@
         <v>244</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127">
@@ -6264,31 +6270,31 @@
         <v>249</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132">
@@ -6304,15 +6310,15 @@
         <v>256</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135">
@@ -6328,23 +6334,23 @@
         <v>261</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139">
@@ -6424,15 +6430,15 @@
         <v>283</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150">
@@ -6488,15 +6494,15 @@
         <v>298</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158">
@@ -6504,15 +6510,15 @@
         <v>301</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
@@ -6544,23 +6550,23 @@
         <v>310</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166">
@@ -6584,15 +6590,15 @@
         <v>318</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170">
@@ -6624,23 +6630,23 @@
         <v>327</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176">
@@ -6752,15 +6758,15 @@
         <v>357</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191">
@@ -6776,15 +6782,15 @@
         <v>362</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194">
@@ -6792,15 +6798,15 @@
         <v>365</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196">
@@ -6824,15 +6830,15 @@
         <v>372</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>374</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200">
@@ -6840,15 +6846,15 @@
         <v>375</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>64</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>377</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202">
@@ -6856,15 +6862,15 @@
         <v>378</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>160</v>
+        <v>379</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
@@ -6936,15 +6942,15 @@
         <v>397</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>399</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214">
@@ -6992,15 +6998,15 @@
         <v>410</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221">
@@ -7008,15 +7014,15 @@
         <v>413</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223">
@@ -7024,15 +7030,15 @@
         <v>416</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225">
@@ -7048,15 +7054,15 @@
         <v>421</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>315</v>
+        <v>422</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228">
@@ -7064,15 +7070,15 @@
         <v>424</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230">
@@ -7176,31 +7182,31 @@
         <v>451</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>52</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>455</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246">
@@ -7240,23 +7246,23 @@
         <v>464</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>110</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
     </row>
     <row r="253">
@@ -7264,15 +7270,15 @@
         <v>468</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>470</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255">
@@ -7304,15 +7310,15 @@
         <v>477</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>268</v>
+        <v>478</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>479</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260">
@@ -7336,15 +7342,15 @@
         <v>484</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>344</v>
+        <v>485</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>486</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264">
@@ -7400,15 +7406,15 @@
         <v>499</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>384</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272">
@@ -7440,15 +7446,15 @@
         <v>508</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="277">
@@ -7456,15 +7462,15 @@
         <v>511</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>246</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>513</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279">
@@ -7512,15 +7518,15 @@
         <v>524</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>52</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>526</v>
+        <v>54</v>
       </c>
     </row>
     <row r="286">
@@ -7552,15 +7558,15 @@
         <v>533</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>535</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291">
@@ -7568,15 +7574,15 @@
         <v>536</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>64</v>
+        <v>537</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>538</v>
+        <v>66</v>
       </c>
     </row>
     <row r="293">
@@ -7592,23 +7598,23 @@
         <v>541</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
     </row>
     <row r="297">
@@ -7616,15 +7622,15 @@
         <v>545</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>184</v>
+        <v>546</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>547</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299">
@@ -7632,15 +7638,15 @@
         <v>548</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>241</v>
+        <v>549</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>550</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301">
@@ -7648,15 +7654,15 @@
         <v>551</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>399</v>
+        <v>552</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>553</v>
+        <v>401</v>
       </c>
     </row>
     <row r="303">
@@ -7672,15 +7678,15 @@
         <v>556</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>213</v>
+        <v>557</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>558</v>
+        <v>215</v>
       </c>
     </row>
     <row r="306">
@@ -7696,15 +7702,15 @@
         <v>561</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>388</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>563</v>
+        <v>390</v>
       </c>
     </row>
     <row r="309">
@@ -7720,15 +7726,15 @@
         <v>566</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>138</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>568</v>
+        <v>140</v>
       </c>
     </row>
     <row r="312">
@@ -7760,15 +7766,15 @@
         <v>575</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>342</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>577</v>
+        <v>344</v>
       </c>
     </row>
     <row r="317">
@@ -7776,15 +7782,15 @@
         <v>578</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>268</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>580</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319">
@@ -7800,15 +7806,15 @@
         <v>583</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>423</v>
+        <v>584</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>585</v>
+        <v>425</v>
       </c>
     </row>
     <row r="322">
@@ -7816,23 +7822,23 @@
         <v>586</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>470</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
     </row>
     <row r="325">
@@ -7840,15 +7846,15 @@
         <v>590</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>206</v>
+        <v>591</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>592</v>
+        <v>208</v>
       </c>
     </row>
     <row r="327">
@@ -7856,15 +7862,15 @@
         <v>593</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>160</v>
+        <v>594</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>595</v>
+        <v>162</v>
       </c>
     </row>
     <row r="329">
@@ -7904,15 +7910,15 @@
         <v>604</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>223</v>
+        <v>605</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>606</v>
+        <v>225</v>
       </c>
     </row>
     <row r="335">
@@ -7968,15 +7974,15 @@
         <v>619</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>305</v>
+        <v>620</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>621</v>
+        <v>307</v>
       </c>
     </row>
     <row r="343">
@@ -7984,23 +7990,23 @@
         <v>622</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>369</v>
+        <v>623</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>540</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>625</v>
+        <v>542</v>
       </c>
     </row>
     <row r="346">
@@ -8008,15 +8014,15 @@
         <v>626</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>356</v>
+        <v>627</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>628</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348">
@@ -8024,23 +8030,23 @@
         <v>629</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>340</v>
+        <v>630</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>632</v>
+        <v>436</v>
       </c>
     </row>
     <row r="351">
@@ -8048,23 +8054,23 @@
         <v>633</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>470</v>
+        <v>634</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>243</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>636</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354">
@@ -8096,31 +8102,31 @@
         <v>643</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>440</v>
+        <v>642</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>647</v>
+        <v>388</v>
       </c>
     </row>
     <row r="361">
@@ -8128,15 +8134,15 @@
         <v>648</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>326</v>
+        <v>649</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>650</v>
+        <v>328</v>
       </c>
     </row>
     <row r="363">
@@ -8144,23 +8150,23 @@
         <v>651</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>403</v>
+        <v>652</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>166</v>
+        <v>405</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>654</v>
+        <v>168</v>
       </c>
     </row>
     <row r="366">
@@ -8168,15 +8174,15 @@
         <v>655</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>492</v>
+        <v>656</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>657</v>
+        <v>494</v>
       </c>
     </row>
     <row r="368">
@@ -8184,15 +8190,15 @@
         <v>658</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>200</v>
+        <v>659</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
     </row>
     <row r="370">
@@ -8216,15 +8222,15 @@
         <v>665</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>461</v>
+        <v>666</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>667</v>
+        <v>463</v>
       </c>
     </row>
     <row r="374">
@@ -8232,15 +8238,15 @@
         <v>668</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>430</v>
+        <v>669</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>670</v>
+        <v>432</v>
       </c>
     </row>
     <row r="376">
@@ -8248,23 +8254,23 @@
         <v>671</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>428</v>
+        <v>672</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>647</v>
+        <v>430</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
     </row>
     <row r="379">
@@ -8272,31 +8278,31 @@
         <v>675</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>219</v>
+        <v>676</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>679</v>
+        <v>459</v>
       </c>
     </row>
     <row r="383">
@@ -8320,15 +8326,15 @@
         <v>684</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>686</v>
+        <v>591</v>
       </c>
     </row>
     <row r="387">
@@ -8336,15 +8342,15 @@
         <v>687</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>60</v>
+        <v>688</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>689</v>
+        <v>62</v>
       </c>
     </row>
     <row r="389">
@@ -8360,71 +8366,71 @@
         <v>692</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>440</v>
+        <v>608</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>198</v>
+        <v>461</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>386</v>
+        <v>200</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>553</v>
+        <v>398</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>382</v>
+        <v>555</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>701</v>
+        <v>384</v>
       </c>
     </row>
     <row r="399">
@@ -8440,47 +8446,47 @@
         <v>704</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>260</v>
+        <v>705</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>521</v>
+        <v>160</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>710</v>
+        <v>523</v>
       </c>
     </row>
     <row r="406">
@@ -8496,39 +8502,39 @@
         <v>713</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>361</v>
+        <v>714</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>494</v>
+        <v>270</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>718</v>
+        <v>512</v>
       </c>
     </row>
     <row r="412">
@@ -8552,15 +8558,15 @@
         <v>723</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>371</v>
+        <v>724</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>725</v>
+        <v>373</v>
       </c>
     </row>
     <row r="416">
@@ -8568,15 +8574,15 @@
         <v>726</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>332</v>
+        <v>727</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>728</v>
+        <v>334</v>
       </c>
     </row>
     <row r="418">
@@ -8584,28 +8590,28 @@
         <v>729</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>618</v>
+        <v>730</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>305</v>
+        <v>620</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>614</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="422">
       <c r="A422" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>616</v>
@@ -8621,66 +8627,66 @@
     </row>
     <row r="423">
       <c r="A423" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>239</v>
+        <v>623</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>638</v>
+        <v>272</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>243</v>
+        <v>683</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>742</v>
+        <v>322</v>
       </c>
     </row>
     <row r="431">
@@ -8696,15 +8702,15 @@
         <v>745</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>324</v>
+        <v>746</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>747</v>
+        <v>326</v>
       </c>
     </row>
     <row r="434">
@@ -8712,23 +8718,23 @@
         <v>748</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>80</v>
+        <v>749</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>751</v>
+        <v>94</v>
       </c>
     </row>
     <row r="437">
@@ -8752,39 +8758,39 @@
         <v>756</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>348</v>
+        <v>757</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>142</v>
+        <v>350</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>761</v>
+        <v>322</v>
       </c>
     </row>
     <row r="444">
@@ -8792,31 +8798,31 @@
         <v>762</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>532</v>
+        <v>763</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>664</v>
+        <v>534</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>766</v>
+        <v>603</v>
       </c>
     </row>
     <row r="448">
@@ -8832,23 +8838,23 @@
         <v>769</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>332</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>772</v>
+        <v>334</v>
       </c>
     </row>
     <row r="452">
@@ -8856,15 +8862,15 @@
         <v>773</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>494</v>
+        <v>774</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>775</v>
+        <v>496</v>
       </c>
     </row>
     <row r="454">
@@ -8872,15 +8878,15 @@
         <v>776</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>778</v>
+        <v>720</v>
       </c>
     </row>
     <row r="456">
@@ -8888,15 +8894,15 @@
         <v>779</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>565</v>
+        <v>780</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>781</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458">
@@ -8904,15 +8910,15 @@
         <v>782</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>162</v>
+        <v>783</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>784</v>
+        <v>164</v>
       </c>
     </row>
     <row r="460">
@@ -8928,23 +8934,23 @@
         <v>787</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>394</v>
+        <v>788</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>790</v>
+        <v>36</v>
       </c>
     </row>
     <row r="464">
@@ -8952,31 +8958,31 @@
         <v>791</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>243</v>
+        <v>746</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>795</v>
+        <v>245</v>
       </c>
     </row>
     <row r="468">
@@ -8992,39 +8998,39 @@
         <v>798</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>722</v>
+        <v>799</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>457</v>
+        <v>724</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>142</v>
+        <v>459</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>803</v>
+        <v>142</v>
       </c>
     </row>
     <row r="474">
@@ -9032,15 +9038,15 @@
         <v>804</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>751</v>
+        <v>805</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>806</v>
+        <v>753</v>
       </c>
     </row>
     <row r="476">
@@ -9048,23 +9054,23 @@
         <v>807</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>755</v>
+        <v>808</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>80</v>
+        <v>757</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>810</v>
+        <v>82</v>
       </c>
     </row>
     <row r="479">
@@ -9072,15 +9078,15 @@
         <v>811</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>92</v>
+        <v>812</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>813</v>
+        <v>94</v>
       </c>
     </row>
     <row r="481">
@@ -9088,23 +9094,23 @@
         <v>814</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>647</v>
+        <v>815</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>305</v>
+        <v>649</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>817</v>
+        <v>307</v>
       </c>
     </row>
     <row r="484">
@@ -9256,15 +9262,15 @@
         <v>854</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>164</v>
+        <v>855</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>856</v>
+        <v>166</v>
       </c>
     </row>
     <row r="504">
@@ -9272,23 +9278,23 @@
         <v>857</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>444</v>
+        <v>858</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>860</v>
+        <v>373</v>
       </c>
     </row>
     <row r="507">
@@ -9296,31 +9302,31 @@
         <v>861</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>585</v>
+        <v>862</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>260</v>
+        <v>474</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>865</v>
+        <v>262</v>
       </c>
     </row>
     <row r="511">
@@ -9328,95 +9334,95 @@
         <v>866</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>747</v>
+        <v>867</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>346</v>
+        <v>749</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>142</v>
+        <v>363</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>751</v>
+        <v>142</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>92</v>
+        <v>805</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>878</v>
+        <v>94</v>
       </c>
     </row>
     <row r="523">
@@ -9432,55 +9438,55 @@
         <v>881</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>544</v>
+        <v>882</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>679</v>
+        <v>403</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>526</v>
+        <v>681</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>888</v>
+        <v>348</v>
       </c>
     </row>
     <row r="531">
@@ -9488,47 +9494,47 @@
         <v>889</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>599</v>
+        <v>890</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>494</v>
+        <v>601</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>599</v>
+        <v>496</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>426</v>
+        <v>601</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>184</v>
+        <v>428</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>895</v>
+        <v>186</v>
       </c>
     </row>
     <row r="537">
@@ -9552,39 +9558,39 @@
         <v>900</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>703</v>
+        <v>901</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>407</v>
+        <v>705</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>761</v>
+        <v>409</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>320</v>
+        <v>763</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>905</v>
+        <v>322</v>
       </c>
     </row>
     <row r="544">
@@ -9592,31 +9598,31 @@
         <v>906</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>718</v>
+        <v>907</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>374</v>
+        <v>724</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>910</v>
+        <v>376</v>
       </c>
     </row>
     <row r="548">
@@ -9624,151 +9630,151 @@
         <v>911</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>440</v>
+        <v>912</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>124</v>
+        <v>363</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>683</v>
+        <v>128</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>359</v>
+        <v>685</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>467</v>
+        <v>361</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>778</v>
+        <v>469</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>100</v>
+        <v>780</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>346</v>
+        <v>114</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>930</v>
+        <v>100</v>
       </c>
     </row>
     <row r="567">
@@ -9776,15 +9782,15 @@
         <v>931</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>778</v>
+        <v>932</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>933</v>
+        <v>780</v>
       </c>
     </row>
     <row r="569">
@@ -9792,55 +9798,55 @@
         <v>934</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>371</v>
+        <v>935</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>260</v>
+        <v>430</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>405</v>
+        <v>262</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>219</v>
+        <v>407</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>941</v>
+        <v>239</v>
       </c>
     </row>
     <row r="576">
@@ -9864,71 +9870,71 @@
         <v>946</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>797</v>
+        <v>947</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>496</v>
+        <v>797</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>84</v>
+        <v>521</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>955</v>
+        <v>80</v>
       </c>
     </row>
     <row r="587">
@@ -9952,71 +9958,71 @@
         <v>960</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>523</v>
+        <v>961</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>76</v>
+        <v>525</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>426</v>
+        <v>78</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>969</v>
+        <v>88</v>
       </c>
     </row>
     <row r="598">
@@ -10024,15 +10030,15 @@
         <v>970</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>46</v>
+        <v>971</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>972</v>
+        <v>48</v>
       </c>
     </row>
     <row r="600">
@@ -10040,47 +10046,47 @@
         <v>973</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>48</v>
+        <v>974</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>979</v>
+        <v>42</v>
       </c>
     </row>
     <row r="606">
@@ -10088,31 +10094,31 @@
         <v>980</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>11</v>
+        <v>981</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>530</v>
+        <v>13</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>108</v>
+        <v>532</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>984</v>
+        <v>110</v>
       </c>
     </row>
     <row r="610">
@@ -10120,15 +10126,15 @@
         <v>985</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>831</v>
+        <v>986</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>987</v>
+        <v>833</v>
       </c>
     </row>
     <row r="612">
@@ -10160,20 +10166,20 @@
         <v>994</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>829</v>
+        <v>995</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>819</v>
@@ -10181,23 +10187,23 @@
     </row>
     <row r="618">
       <c r="A618" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>305</v>
+        <v>821</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>839</v>
+        <v>307</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>841</v>
@@ -10205,15 +10211,15 @@
     </row>
     <row r="621">
       <c r="A621" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>837</v>
@@ -10221,39 +10227,39 @@
     </row>
     <row r="623">
       <c r="A623" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>827</v>
@@ -10261,15 +10267,15 @@
     </row>
     <row r="628">
       <c r="A628" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>823</v>
@@ -10277,18 +10283,18 @@
     </row>
     <row r="630">
       <c r="A630" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>555</v>
+        <v>825</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1011</v>
+        <v>557</v>
       </c>
     </row>
     <row r="632">
@@ -10296,15 +10302,15 @@
         <v>1012</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>348</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1014</v>
+        <v>350</v>
       </c>
     </row>
     <row r="634">
@@ -10344,15 +10350,15 @@
         <v>1023</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>5</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1025</v>
+        <v>7</v>
       </c>
     </row>
     <row r="640">
@@ -10360,63 +10366,63 @@
         <v>1026</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>9</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1034</v>
+        <v>21</v>
       </c>
     </row>
     <row r="648">
@@ -10424,39 +10430,39 @@
         <v>1035</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>32</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1040</v>
+        <v>30</v>
       </c>
     </row>
     <row r="653">
@@ -10472,23 +10478,23 @@
         <v>1043</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>30</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1040</v>
+        <v>32</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="657">
@@ -10544,15 +10550,15 @@
         <v>1059</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>23</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1061</v>
+        <v>25</v>
       </c>
     </row>
     <row r="665">
@@ -10584,39 +10590,39 @@
         <v>1068</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>492</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>354</v>
+        <v>494</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="3" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1073</v>
+        <v>160</v>
       </c>
     </row>
     <row r="673">
@@ -10624,20 +10630,20 @@
         <v>1074</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>494</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>488</v>
@@ -10645,26 +10651,26 @@
     </row>
     <row r="676">
       <c r="A676" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>367</v>
+        <v>490</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1080</v>
+        <v>503</v>
       </c>
     </row>
     <row r="679">
@@ -10672,12 +10678,12 @@
         <v>1081</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>681</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>683</v>
@@ -10685,50 +10691,50 @@
     </row>
     <row r="681">
       <c r="A681" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>969</v>
+        <v>685</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>608</v>
+        <v>971</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>415</v>
+        <v>610</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1089</v>
+        <v>481</v>
       </c>
     </row>
     <row r="687">
@@ -10744,23 +10750,23 @@
         <v>1092</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>878</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1095</v>
+        <v>912</v>
       </c>
     </row>
     <row r="691">
@@ -10768,108 +10774,108 @@
         <v>1096</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>423</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>202</v>
+        <v>409</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>444</v>
+        <v>322</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>309</v>
+        <v>446</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>632</v>
+        <v>407</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>784</v>
+        <v>597</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>430</v>
+        <v>786</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>1046</v>
+        <v>396</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>1048</v>
@@ -10877,10 +10883,10 @@
     </row>
     <row r="705">
       <c r="A705" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1111</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="706">
@@ -10960,15 +10966,15 @@
         <v>1130</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1056</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1132</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="717">
@@ -10976,12 +10982,12 @@
         <v>1133</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>1052</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>1054</v>
@@ -10989,18 +10995,18 @@
     </row>
     <row r="719">
       <c r="A719" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>1137</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="721">
@@ -11080,23 +11086,23 @@
         <v>1156</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>470</v>
+        <v>162</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1159</v>
+        <v>472</v>
       </c>
     </row>
     <row r="733">
@@ -11104,12 +11110,12 @@
         <v>1160</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1016</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>1018</v>
@@ -11117,10 +11123,10 @@
     </row>
     <row r="735">
       <c r="A735" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>1163</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="736">
@@ -11160,39 +11166,39 @@
         <v>1172</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>979</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>248</v>
+        <v>981</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="745">
@@ -11216,15 +11222,15 @@
         <v>1182</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>60</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>1184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="749">
@@ -11240,47 +11246,47 @@
         <v>1187</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>369</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>530</v>
+        <v>371</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>434</v>
+        <v>532</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>555</v>
+        <v>334</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1193</v>
+        <v>557</v>
       </c>
     </row>
     <row r="756">
@@ -11288,15 +11294,15 @@
         <v>1194</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>479</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>1196</v>
+        <v>481</v>
       </c>
     </row>
     <row r="758">
@@ -11304,175 +11310,175 @@
         <v>1197</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>110</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1091</v>
+        <v>112</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>390</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>428</v>
+        <v>350</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>168</v>
+        <v>488</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>488</v>
+        <v>170</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>930</v>
+        <v>344</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>338</v>
+        <v>932</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="3" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>550</v>
+        <v>326</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>428</v>
+        <v>552</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>797</v>
+        <v>430</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>1219</v>
+        <v>799</v>
       </c>
     </row>
     <row r="780">
@@ -11480,31 +11486,31 @@
         <v>1220</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>396</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="3" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>270</v>
+        <v>436</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="3" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="784">
@@ -11512,15 +11518,15 @@
         <v>1225</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>679</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1227</v>
+        <v>681</v>
       </c>
     </row>
     <row r="786">
@@ -11528,39 +11534,39 @@
         <v>1228</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>423</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>910</v>
+        <v>425</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>280</v>
+        <v>912</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="3" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>521</v>
+        <v>282</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1233</v>
+        <v>523</v>
       </c>
     </row>
     <row r="791">
@@ -11568,36 +11574,36 @@
         <v>1234</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>819</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="3" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>305</v>
+        <v>821</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>827</v>
+        <v>307</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="3" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>823</v>
@@ -11605,26 +11611,26 @@
     </row>
     <row r="796">
       <c r="A796" s="3" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>1242</v>
+        <v>827</v>
       </c>
     </row>
     <row r="799">
@@ -11632,28 +11638,28 @@
         <v>1243</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>829</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="3" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>837</v>
@@ -11661,31 +11667,31 @@
     </row>
     <row r="803">
       <c r="A803" s="3" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="3" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>845</v>
@@ -11693,90 +11699,90 @@
     </row>
     <row r="807">
       <c r="A807" s="3" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="3" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>258</v>
+        <v>841</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="3" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>606</v>
+        <v>260</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="3" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>747</v>
+        <v>549</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>691</v>
+        <v>749</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="3" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>865</v>
+        <v>693</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>778</v>
+        <v>867</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>243</v>
+        <v>780</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="3" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1262</v>
+        <v>168</v>
       </c>
     </row>
     <row r="818">
@@ -11800,39 +11806,39 @@
         <v>1267</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>608</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>138</v>
+        <v>610</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>305</v>
+        <v>140</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="3" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="3" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>1272</v>
+        <v>150</v>
       </c>
     </row>
     <row r="825">
@@ -11840,79 +11846,79 @@
         <v>1273</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>330</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>612</v>
+        <v>332</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>377</v>
+        <v>618</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="3" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>130</v>
+        <v>379</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>621</v>
+        <v>132</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="3" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>305</v>
+        <v>620</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>1283</v>
+        <v>388</v>
       </c>
     </row>
     <row r="835">
@@ -11920,132 +11926,132 @@
         <v>1284</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>538</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>326</v>
+        <v>540</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="3" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="3" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="3" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="3" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>544</v>
+        <v>363</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>371</v>
+        <v>546</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="3" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>638</v>
+        <v>373</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="3" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>206</v>
+        <v>640</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>720</v>
+        <v>208</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>601</v>
+        <v>722</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="3" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>229</v>
+        <v>603</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="3" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>128</v>
@@ -12053,47 +12059,47 @@
     </row>
     <row r="852">
       <c r="A852" s="3" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>755</v>
+        <v>206</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="3" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>140</v>
+        <v>753</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>142</v>
@@ -12101,135 +12107,135 @@
     </row>
     <row r="858">
       <c r="A858" s="3" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="3" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="3" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="3" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>959</v>
+        <v>94</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>100</v>
+        <v>961</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="3" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>778</v>
+        <v>106</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="3" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>74</v>
+        <v>780</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="3" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B874" s="3" t="s">
         <v>86</v>
@@ -12237,106 +12243,106 @@
     </row>
     <row r="875">
       <c r="A875" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>68</v>
+        <v>354</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>761</v>
+        <v>68</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>62</v>
+        <v>612</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="3" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>494</v>
+        <v>64</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="3" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>1337</v>
+        <v>428</v>
       </c>
     </row>
     <row r="888">
@@ -12344,28 +12350,28 @@
         <v>1338</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>36</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="3" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>1020</v>
+        <v>192</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B891" s="3" t="s">
         <v>1022</v>
@@ -12373,15 +12379,15 @@
     </row>
     <row r="892">
       <c r="A892" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B893" s="3" t="s">
         <v>1018</v>
@@ -12389,263 +12395,263 @@
     </row>
     <row r="894">
       <c r="A894" s="3" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>9</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>1040</v>
+        <v>7</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>15</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="3" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>1034</v>
+        <v>52</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>32</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>1117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>30</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="3" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>1054</v>
+        <v>30</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>1137</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>23</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>1141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>21</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>979</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>1046</v>
+        <v>981</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B926" s="3" t="s">
         <v>1048</v>
@@ -12653,18 +12659,18 @@
     </row>
     <row r="927">
       <c r="A927" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>158</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>1379</v>
+        <v>160</v>
       </c>
     </row>
     <row r="929">
@@ -12672,55 +12678,55 @@
         <v>1380</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>1129</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>1056</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>1132</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>1052</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>182</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>1387</v>
+        <v>200</v>
       </c>
     </row>
     <row r="936">
@@ -12728,79 +12734,79 @@
         <v>1388</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>180</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>565</v>
+        <v>180</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>647</v>
+        <v>567</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>753</v>
+        <v>649</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>64</v>
+        <v>755</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>457</v>
+        <v>66</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>1398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="946">
@@ -12808,15 +12814,15 @@
         <v>1399</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>647</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>1401</v>
+        <v>649</v>
       </c>
     </row>
     <row r="948">
@@ -12824,71 +12830,71 @@
         <v>1402</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>200</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>761</v>
+        <v>202</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>494</v>
+        <v>763</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>718</v>
+        <v>496</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>241</v>
+        <v>724</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>532</v>
+        <v>243</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>264</v>
+        <v>534</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>1411</v>
+        <v>266</v>
       </c>
     </row>
     <row r="957">
@@ -12896,23 +12902,23 @@
         <v>1412</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>599</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>237</v>
+        <v>601</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>1415</v>
+        <v>239</v>
       </c>
     </row>
     <row r="960">
@@ -12936,20 +12942,20 @@
         <v>1420</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>371</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>104</v>
@@ -12957,34 +12963,34 @@
     </row>
     <row r="965">
       <c r="A965" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>315</v>
+        <v>102</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>1427</v>
+        <v>317</v>
       </c>
     </row>
     <row r="969">
@@ -13016,23 +13022,23 @@
         <v>1434</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>106</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>1437</v>
+        <v>241</v>
       </c>
     </row>
     <row r="975">
@@ -13040,63 +13046,63 @@
         <v>1438</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>144</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>803</v>
+        <v>82</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>701</v>
+        <v>805</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>1446</v>
+        <v>703</v>
       </c>
     </row>
     <row r="983">
@@ -13104,71 +13110,71 @@
         <v>1447</v>
       </c>
       <c r="B983" s="3" t="s">
-        <v>457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B984" s="3" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B985" s="3" t="s">
-        <v>403</v>
+        <v>225</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="3" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B986" s="3" t="s">
-        <v>664</v>
+        <v>405</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="3" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B987" s="3" t="s">
-        <v>227</v>
+        <v>666</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B989" s="3" t="s">
-        <v>597</v>
+        <v>221</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="3" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B990" s="3" t="s">
-        <v>225</v>
+        <v>599</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B991" s="3" t="s">
-        <v>1456</v>
+        <v>227</v>
       </c>
     </row>
     <row r="992">
@@ -13176,36 +13182,36 @@
         <v>1457</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>361</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="3" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B993" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="3" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="3" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B995" s="3" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="3" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B996" s="3" t="s">
         <v>154</v>
@@ -13213,18 +13219,18 @@
     </row>
     <row r="997">
       <c r="A997" s="3" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="3" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B998" s="3" t="s">
-        <v>1464</v>
+        <v>266</v>
       </c>
     </row>
     <row r="999">
@@ -13248,15 +13254,15 @@
         <v>1469</v>
       </c>
       <c r="B1001" s="3" t="s">
-        <v>941</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="3" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1002" s="3" t="s">
-        <v>1471</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1003">
@@ -13264,31 +13270,31 @@
         <v>1472</v>
       </c>
       <c r="B1003" s="3" t="s">
-        <v>1016</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" s="3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1004" s="3" t="s">
-        <v>1048</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" s="3" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>784</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" s="3" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B1006" s="3" t="s">
-        <v>1476</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1007">
@@ -13296,31 +13302,31 @@
         <v>1477</v>
       </c>
       <c r="B1007" s="3" t="s">
-        <v>248</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="3" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B1008" s="3" t="s">
-        <v>1034</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B1009" s="3" t="s">
-        <v>751</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="3" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1010" s="3" t="s">
-        <v>1481</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1011">
@@ -13336,63 +13342,63 @@
         <v>1484</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>448</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" s="3" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1013" s="3" t="s">
-        <v>532</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1014" s="3" t="s">
-        <v>1415</v>
+        <v>534</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" s="3" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B1015" s="3" t="s">
-        <v>897</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B1016" s="3" t="s">
-        <v>440</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="3" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B1017" s="3" t="s">
-        <v>1091</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" s="3" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1018" s="3" t="s">
-        <v>386</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1019" s="3" t="s">
-        <v>1492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1020">
@@ -13408,31 +13414,31 @@
         <v>1495</v>
       </c>
       <c r="B1021" s="3" t="s">
-        <v>515</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="3" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1022" s="3" t="s">
-        <v>1186</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1023" s="3" t="s">
-        <v>80</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="3" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1024" s="3" t="s">
-        <v>1499</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1025">
@@ -13440,175 +13446,175 @@
         <v>1500</v>
       </c>
       <c r="B1025" s="3" t="s">
-        <v>1476</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1026" s="3" t="s">
-        <v>88</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="3" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1027" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="3" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1028" s="3" t="s">
-        <v>833</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1029" s="3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" s="3" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1030" s="3" t="s">
-        <v>1129</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1031" s="3" t="s">
-        <v>1050</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1032" s="3" t="s">
-        <v>614</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1033" s="3" t="s">
-        <v>194</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1034" s="3" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="3" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1035" s="3" t="s">
-        <v>423</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1036" s="3" t="s">
-        <v>553</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="3" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1037" s="3" t="s">
-        <v>1387</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="3" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1038" s="3" t="s">
-        <v>1186</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="3" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>162</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1040" s="3" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="3" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1041" s="3" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="3" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1042" s="3" t="s">
-        <v>1080</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="3" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1043" s="3" t="s">
-        <v>1468</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="3" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>350</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="3" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1045" s="3" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="3" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>1522</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1047">
@@ -13640,23 +13646,23 @@
         <v>1529</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>1115</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1051" s="3" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="3" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1052" s="3" t="s">
-        <v>1532</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1053">
@@ -13672,12 +13678,12 @@
         <v>1535</v>
       </c>
       <c r="B1054" s="3" t="s">
-        <v>1117</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" s="3" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1055" s="3" t="s">
         <v>1119</v>
@@ -13685,18 +13691,18 @@
     </row>
     <row r="1056">
       <c r="A1056" s="3" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1056" s="3" t="s">
-        <v>1149</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" s="3" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1057" s="3" t="s">
-        <v>1539</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1058">
@@ -13784,15 +13790,15 @@
         <v>1560</v>
       </c>
       <c r="B1068" s="3" t="s">
-        <v>202</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" s="3" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1069" s="3" t="s">
-        <v>1562</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1070">
@@ -13896,15 +13902,15 @@
         <v>1587</v>
       </c>
       <c r="B1082" s="3" t="s">
-        <v>979</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" s="3" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1083" s="3" t="s">
-        <v>1589</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1084">
@@ -13920,23 +13926,23 @@
         <v>1592</v>
       </c>
       <c r="B1085" s="3" t="s">
-        <v>1014</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="3" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1086" s="3" t="s">
-        <v>1113</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" s="3" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1087" s="3" t="s">
-        <v>1595</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1088">
@@ -13984,16 +13990,24 @@
         <v>1606</v>
       </c>
       <c r="B1093" s="3" t="s">
-        <v>1061</v>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" tooltip="http://chat.url"/>
-    <hyperlink ref="B462" r:id="rId2" tooltip="http://chat.url"/>
+    <hyperlink ref="B19" r:id="rId1" tooltip="http://chat.url"/>
+    <hyperlink ref="B463" r:id="rId2" tooltip="http://chat.url"/>
   </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1093"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B1094"/>
   </ignoredErrors>
 </worksheet>
 </file>